--- a/data/trans_bre/P27F_5_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P27F_5_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -602,239 +611,153 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>5,22</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,37</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,27</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>189,65%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>22,92%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>5.22283935518766</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.381584193140799</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.4202821793420692</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>1.896501842821315</v>
+      </c>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.3783913427906158</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-0,26; 11,82</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 4,81</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-3,63; 2,91</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-29,81; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.2550298002890736</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-3.262112418706026</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.2980677829128136</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>11.82044294844907</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>4.679053079174616</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>3.076604329862603</v>
+      </c>
+      <c r="F6" s="6" t="inlineStr"/>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>1,9</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-1,27</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,38</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>71,37%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-28,64%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>17,28%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-2,45; 8,63</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-5,96; 3,03</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-2,76; 3,32</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-77,23; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-82,99; 224,75</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-83,29; 418,76</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>1.904282551144403</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-1.295196182335658</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.2221022989473537</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.7137233741028329</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.2909726659805797</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.0986683760467349</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,12</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,1</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,55</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>6,54%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-7,24%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-2.450420664615713</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-6.143904228751051</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-2.97965763739331</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.7722568290288608</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.8256255238544901</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.8405046811824055</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-2,42; 3,02</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-2,53; 1,79</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>1,05; 6,63</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>8.628869011974976</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>3.044703982316508</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>3.114422057457652</v>
+      </c>
+      <c r="F9" s="6" t="inlineStr"/>
+      <c r="G9" s="6" t="n">
+        <v>2.262395456861891</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>3.93190870770678</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -842,34 +765,24 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,98</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,28</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,41</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>65,25%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>28,27%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>204,26%</t>
+      <c r="C10" s="5" t="n">
+        <v>0.1212830242883607</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.2336095258212961</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>2.516630595513543</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.06544080809264417</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.1631119882769078</v>
+      </c>
+      <c r="H10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>
@@ -877,204 +790,122 @@
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-4,71; 5,91</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-1,94; 2,12</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,21; 3,4</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-71,04; 1061,28</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-54,5; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-2.416647040219361</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-2.67796593133159</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>1.016434072752605</v>
+      </c>
+      <c r="F11" s="6" t="inlineStr"/>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>3.02487457758986</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.593730975445453</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>6.522714163537516</v>
+      </c>
+      <c r="F12" s="6" t="inlineStr"/>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>3,51</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,62</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2,69</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>314,87%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>632,22%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>0,49; 6,88</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 3,72</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,74; 6,21</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-22,28; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>1.979802095690302</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.3017559608168865</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1.323366937573834</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.6525420349900077</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.3175292917487971</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>1.992016394609684</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,47</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-4.713633184064539</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-1.805322900890409</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.2368034375547404</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.7103926980082338</v>
+      </c>
+      <c r="G14" s="6" t="inlineStr"/>
+      <c r="H14" s="6" t="n">
+        <v>-0.5339516579419628</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 2,38</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>5.91438901316506</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>2.134849263739328</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>3.131565192602555</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>10.61277079019487</v>
+      </c>
+      <c r="G15" s="6" t="inlineStr"/>
+      <c r="H15" s="6" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1082,77 +913,213 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>1,71</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,12</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>1,17</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>87,72%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>10,29%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>162,21%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>3.514527803821824</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.6256975602705961</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>2.73435164544011</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>3.148684806403297</v>
+      </c>
+      <c r="G16" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>6.96269728372363</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-0,13; 3,3</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-0,98; 0,97</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>0,31; 2,17</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-11,14; 255,55</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-53,89; 158,62</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>14,03; 585,26</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>0.4933096428601196</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>0.8237771777002723</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>-0.2228358635180587</v>
+      </c>
+      <c r="G17" s="6" t="inlineStr"/>
+      <c r="H17" s="6" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>6.880841297551657</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>3.747477255827271</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>6.252154313929823</v>
+      </c>
+      <c r="F18" s="6" t="inlineStr"/>
+      <c r="G18" s="6" t="inlineStr"/>
+      <c r="H18" s="6" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>0.4857788575963046</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6" t="inlineStr"/>
+      <c r="G19" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H19" s="6" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr"/>
+      <c r="D20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5" t="inlineStr"/>
+      <c r="F20" s="6" t="inlineStr"/>
+      <c r="G20" s="6" t="inlineStr"/>
+      <c r="H20" s="6" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="inlineStr"/>
+      <c r="D21" s="5" t="n">
+        <v>2.417422583279902</v>
+      </c>
+      <c r="E21" s="5" t="inlineStr"/>
+      <c r="F21" s="6" t="inlineStr"/>
+      <c r="G21" s="6" t="inlineStr"/>
+      <c r="H21" s="6" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>1.70535724010008</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.1017185384119493</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>1.148806512569815</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>0.877168546421122</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.08555947762548387</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>1.606917629227419</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-0.1263816142664127</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-1.000856724155737</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.3089424151186664</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>-0.111444855290577</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-0.5449666980183028</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>0.1603368961374131</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>3.296999014650435</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.9782882975624758</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>2.138784317012621</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>2.555481144637595</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>1.564695161834982</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>5.787268583359771</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1161,15 +1128,15 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
